--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_ynyn_gen_pf_sc_results_2_bus_resonant.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_ynyn_gen_pf_sc_results_2_bus_resonant.xlsx
@@ -752,22 +752,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.070094227532346</v>
+        <v>1.070094227532368</v>
       </c>
       <c r="O2">
-        <v>0.9380319009574459</v>
+        <v>0.9380319009573985</v>
       </c>
       <c r="P2">
-        <v>1.053494350468705</v>
+        <v>1.053494350468727</v>
       </c>
       <c r="Q2">
-        <v>25.98965116739708</v>
+        <v>25.98965116739489</v>
       </c>
       <c r="R2">
-        <v>-91.13019952201601</v>
+        <v>-91.13019952201626</v>
       </c>
       <c r="S2">
-        <v>153.5693903185486</v>
+        <v>153.5693903185504</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -811,22 +811,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.031611214669993</v>
+        <v>1.031611214670019</v>
       </c>
       <c r="O3">
-        <v>0.2917056037512944</v>
+        <v>0.2917056037512681</v>
       </c>
       <c r="P3">
-        <v>0.8906876332644381</v>
+        <v>0.8906876332644816</v>
       </c>
       <c r="Q3">
-        <v>7.091324389062615</v>
+        <v>7.091324389061656</v>
       </c>
       <c r="R3">
-        <v>-119.1713773550799</v>
+        <v>-119.1713773550788</v>
       </c>
       <c r="S3">
-        <v>171.7794727726616</v>
+        <v>171.7794727726624</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -837,55 +837,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.709154423937069</v>
+        <v>3.709154423936902</v>
       </c>
       <c r="D4">
-        <v>3.709154423937069</v>
+        <v>3.709154423936902</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>42.82962610251916</v>
+        <v>42.82962610251724</v>
       </c>
       <c r="G4">
-        <v>42.82962610251916</v>
+        <v>42.82962610251724</v>
       </c>
       <c r="H4">
-        <v>3.763767454829635</v>
+        <v>0.9290034595184007</v>
       </c>
       <c r="I4">
-        <v>2.348036266670648</v>
+        <v>-777.3313339353872</v>
       </c>
       <c r="J4">
-        <v>0.6277319163570094</v>
+        <v>0.6277319163975308</v>
       </c>
       <c r="K4">
-        <v>2.89843869794818</v>
+        <v>2.898438698024544</v>
       </c>
       <c r="L4">
-        <v>0.6277319163638694</v>
+        <v>0.6277319163582739</v>
       </c>
       <c r="M4">
-        <v>2.898438697960014</v>
+        <v>2.898438697970032</v>
       </c>
       <c r="N4">
-        <v>0.9526279648032093</v>
+        <v>0.9526279648032371</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279648047558</v>
+        <v>0.9526279648048005</v>
       </c>
       <c r="Q4">
-        <v>-1.243022260446055E-11</v>
+        <v>-1.283916965476978E-11</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999999999811</v>
+        <v>-179.9999999999812</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -929,22 +929,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279647942856</v>
+        <v>0.9526279647943134</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648136797</v>
+        <v>0.9526279648137245</v>
       </c>
       <c r="Q5">
-        <v>4.606094720667687E-10</v>
+        <v>4.601927041678301E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999995313</v>
+        <v>179.9999999995312</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279647942856</v>
+        <v>0.9526279647943133</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279648136797</v>
+        <v>0.9526279648137245</v>
       </c>
       <c r="Q6">
-        <v>4.606112949988609E-10</v>
+        <v>4.601987537818814E-10</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999995313</v>
+        <v>179.9999999995312</v>
       </c>
     </row>
   </sheetData>
@@ -1119,22 +1119,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.09687854193859</v>
+        <v>1.096878541938585</v>
       </c>
       <c r="O2">
-        <v>1.029837663667628</v>
+        <v>1.029837663667599</v>
       </c>
       <c r="P2">
-        <v>1.068709665745342</v>
+        <v>1.068709665745341</v>
       </c>
       <c r="Q2">
-        <v>27.98323699101546</v>
+        <v>27.9832369910147</v>
       </c>
       <c r="R2">
-        <v>-91.78162348160745</v>
+        <v>-91.7816234816073</v>
       </c>
       <c r="S2">
-        <v>151.2113112851477</v>
+        <v>151.2113112851485</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.109634423210918</v>
+        <v>1.109634423210912</v>
       </c>
       <c r="O3">
-        <v>0.761777901871072</v>
+        <v>0.7617779018710434</v>
       </c>
       <c r="P3">
-        <v>0.9348070984869522</v>
+        <v>0.9348070984869563</v>
       </c>
       <c r="Q3">
-        <v>19.43181595267039</v>
+        <v>19.43181595266972</v>
       </c>
       <c r="R3">
-        <v>-104.2565908665021</v>
+        <v>-104.2565908665018</v>
       </c>
       <c r="S3">
-        <v>156.7400468039737</v>
+        <v>156.7400468039746</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1204,55 +1204,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.763086650675505</v>
+        <v>1.763086650675474</v>
       </c>
       <c r="D4">
-        <v>1.763086650675505</v>
+        <v>1.763086650675474</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.35837104744277</v>
+        <v>20.35837104744241</v>
       </c>
       <c r="G4">
-        <v>20.35837104744277</v>
+        <v>20.35837104744241</v>
       </c>
       <c r="H4">
-        <v>3.763767454829635</v>
+        <v>0.9290034595184007</v>
       </c>
       <c r="I4">
-        <v>2.348036266670648</v>
+        <v>-777.3313339353872</v>
       </c>
       <c r="J4">
-        <v>0.6277319163570094</v>
+        <v>0.6277319163975308</v>
       </c>
       <c r="K4">
-        <v>2.89843869794818</v>
+        <v>2.898438698024544</v>
       </c>
       <c r="L4">
-        <v>0.6277319163638694</v>
+        <v>0.6277319163582739</v>
       </c>
       <c r="M4">
-        <v>2.898438697960014</v>
+        <v>2.898438697970032</v>
       </c>
       <c r="N4">
-        <v>1.075852895209832</v>
+        <v>1.075852895209827</v>
       </c>
       <c r="O4">
-        <v>0.6233452632551814</v>
+        <v>0.6233452632551549</v>
       </c>
       <c r="P4">
-        <v>0.9229411060011535</v>
+        <v>0.9229411060011602</v>
       </c>
       <c r="Q4">
-        <v>16.25665454943078</v>
+        <v>16.25665454943015</v>
       </c>
       <c r="R4">
-        <v>-104.9129785376843</v>
+        <v>-104.9129785376837</v>
       </c>
       <c r="S4">
-        <v>160.9543898286497</v>
+        <v>160.9543898286505</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1296,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.075852895205487</v>
+        <v>1.075852895205482</v>
       </c>
       <c r="O5">
-        <v>0.6233452632568746</v>
+        <v>0.623345263256848</v>
       </c>
       <c r="P5">
-        <v>0.9229411060067906</v>
+        <v>0.9229411060067969</v>
       </c>
       <c r="Q5">
-        <v>16.25665454962346</v>
+        <v>16.25665454962283</v>
       </c>
       <c r="R5">
-        <v>-104.9129785366566</v>
+        <v>-104.912978536656</v>
       </c>
       <c r="S5">
-        <v>160.9543898286223</v>
+        <v>160.9543898286231</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1355,22 +1355,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.075852895205487</v>
+        <v>1.075852895205482</v>
       </c>
       <c r="O6">
-        <v>0.6233452632568746</v>
+        <v>0.623345263256848</v>
       </c>
       <c r="P6">
-        <v>0.9229411060067906</v>
+        <v>0.9229411060067969</v>
       </c>
       <c r="Q6">
-        <v>16.25665454962345</v>
+        <v>16.25665454962283</v>
       </c>
       <c r="R6">
-        <v>-104.9129785366566</v>
+        <v>-104.912978536656</v>
       </c>
       <c r="S6">
-        <v>160.9543898286223</v>
+        <v>160.9543898286231</v>
       </c>
     </row>
   </sheetData>
@@ -1486,22 +1486,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.09687854193859</v>
+        <v>1.096878541938585</v>
       </c>
       <c r="O2">
-        <v>1.029837663667628</v>
+        <v>1.029837663667599</v>
       </c>
       <c r="P2">
-        <v>1.068709665745342</v>
+        <v>1.068709665745341</v>
       </c>
       <c r="Q2">
-        <v>27.98323699101546</v>
+        <v>27.9832369910147</v>
       </c>
       <c r="R2">
-        <v>-91.78162348160745</v>
+        <v>-91.7816234816073</v>
       </c>
       <c r="S2">
-        <v>151.2113112851477</v>
+        <v>151.2113112851485</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1545,22 +1545,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.109634423210918</v>
+        <v>1.109634423210912</v>
       </c>
       <c r="O3">
-        <v>0.761777901871072</v>
+        <v>0.7617779018710434</v>
       </c>
       <c r="P3">
-        <v>0.9348070984869522</v>
+        <v>0.9348070984869563</v>
       </c>
       <c r="Q3">
-        <v>19.43181595267039</v>
+        <v>19.43181595266972</v>
       </c>
       <c r="R3">
-        <v>-104.2565908665021</v>
+        <v>-104.2565908665018</v>
       </c>
       <c r="S3">
-        <v>156.7400468039737</v>
+        <v>156.7400468039746</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1571,55 +1571,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.763086650675505</v>
+        <v>1.763086650675474</v>
       </c>
       <c r="D4">
-        <v>1.763086650675505</v>
+        <v>1.763086650675474</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.35837104744277</v>
+        <v>20.35837104744241</v>
       </c>
       <c r="G4">
-        <v>20.35837104744277</v>
+        <v>20.35837104744241</v>
       </c>
       <c r="H4">
-        <v>3.763767454829635</v>
+        <v>0.9290034595184007</v>
       </c>
       <c r="I4">
-        <v>2.348036266670648</v>
+        <v>-777.3313339353872</v>
       </c>
       <c r="J4">
-        <v>0.6277319163570094</v>
+        <v>0.6277319163975308</v>
       </c>
       <c r="K4">
-        <v>2.89843869794818</v>
+        <v>2.898438698024544</v>
       </c>
       <c r="L4">
-        <v>0.6277319163638694</v>
+        <v>0.6277319163582739</v>
       </c>
       <c r="M4">
-        <v>2.898438697960014</v>
+        <v>2.898438697970032</v>
       </c>
       <c r="N4">
-        <v>1.075852895209832</v>
+        <v>1.075852895209827</v>
       </c>
       <c r="O4">
-        <v>0.6233452632551814</v>
+        <v>0.6233452632551549</v>
       </c>
       <c r="P4">
-        <v>0.9229411060011535</v>
+        <v>0.9229411060011602</v>
       </c>
       <c r="Q4">
-        <v>16.25665454943078</v>
+        <v>16.25665454943015</v>
       </c>
       <c r="R4">
-        <v>-104.9129785376843</v>
+        <v>-104.9129785376837</v>
       </c>
       <c r="S4">
-        <v>160.9543898286497</v>
+        <v>160.9543898286505</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1663,22 +1663,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.075852895205487</v>
+        <v>1.075852895205482</v>
       </c>
       <c r="O5">
-        <v>0.6233452632568746</v>
+        <v>0.623345263256848</v>
       </c>
       <c r="P5">
-        <v>0.9229411060067906</v>
+        <v>0.9229411060067969</v>
       </c>
       <c r="Q5">
-        <v>16.25665454962346</v>
+        <v>16.25665454962283</v>
       </c>
       <c r="R5">
-        <v>-104.9129785366566</v>
+        <v>-104.912978536656</v>
       </c>
       <c r="S5">
-        <v>160.9543898286223</v>
+        <v>160.9543898286231</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1722,22 +1722,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.075852895205487</v>
+        <v>1.075852895205482</v>
       </c>
       <c r="O6">
-        <v>0.6233452632568746</v>
+        <v>0.623345263256848</v>
       </c>
       <c r="P6">
-        <v>0.9229411060067906</v>
+        <v>0.9229411060067969</v>
       </c>
       <c r="Q6">
-        <v>16.25665454962345</v>
+        <v>16.25665454962283</v>
       </c>
       <c r="R6">
-        <v>-104.9129785366566</v>
+        <v>-104.912978536656</v>
       </c>
       <c r="S6">
-        <v>160.9543898286223</v>
+        <v>160.9543898286231</v>
       </c>
     </row>
   </sheetData>
@@ -1853,22 +1853,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9821968591989456</v>
+        <v>0.982196859198913</v>
       </c>
       <c r="O2">
-        <v>0.850004952541402</v>
+        <v>0.8500049525413512</v>
       </c>
       <c r="P2">
-        <v>0.9468598309457219</v>
+        <v>0.9468598309457105</v>
       </c>
       <c r="Q2">
-        <v>25.60992326808851</v>
+        <v>25.60992326808932</v>
       </c>
       <c r="R2">
-        <v>-92.65381631331513</v>
+        <v>-92.65381631331215</v>
       </c>
       <c r="S2">
-        <v>153.3606354236809</v>
+        <v>153.3606354236838</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1912,22 +1912,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.990070340137079</v>
+        <v>0.9900703401370421</v>
       </c>
       <c r="O3">
-        <v>0.3617201835030113</v>
+        <v>0.3617201835029615</v>
       </c>
       <c r="P3">
-        <v>0.7649715466411117</v>
+        <v>0.76497154664112</v>
       </c>
       <c r="Q3">
-        <v>8.150888684274422</v>
+        <v>8.150888684275493</v>
       </c>
       <c r="R3">
-        <v>-129.0915432241893</v>
+        <v>-129.0915432241848</v>
       </c>
       <c r="S3">
-        <v>169.4262793833645</v>
+        <v>169.4262793833671</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1938,55 +1938,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.119085825515528</v>
+        <v>3.119085825515375</v>
       </c>
       <c r="D4">
-        <v>3.119085825515528</v>
+        <v>3.119085825515375</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.01610081973872</v>
+        <v>36.01610081973696</v>
       </c>
       <c r="G4">
-        <v>36.01610081973872</v>
+        <v>36.01610081973696</v>
       </c>
       <c r="H4">
-        <v>7.193732704939285</v>
+        <v>1.779871125943829</v>
       </c>
       <c r="I4">
-        <v>2.361514783877015</v>
+        <v>-777.3239522249595</v>
       </c>
       <c r="J4">
-        <v>1.113751880257014</v>
+        <v>1.113751880282301</v>
       </c>
       <c r="K4">
-        <v>3.006397543787041</v>
+        <v>3.006397543839067</v>
       </c>
       <c r="L4">
-        <v>1.113751880233079</v>
+        <v>1.113751880227458</v>
       </c>
       <c r="M4">
-        <v>3.006397543745587</v>
+        <v>3.006397543754448</v>
       </c>
       <c r="N4">
-        <v>0.8660254037880054</v>
+        <v>0.8660254037879721</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254037883344</v>
+        <v>0.8660254037883427</v>
       </c>
       <c r="Q4">
-        <v>1.722725667631101E-10</v>
+        <v>1.735720191896028E-10</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999998194</v>
+        <v>179.9999999998212</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2030,22 +2030,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660254037798927</v>
+        <v>0.8660254037798595</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.866025403796447</v>
+        <v>0.8660254037964552</v>
       </c>
       <c r="Q5">
-        <v>1.080504688398969E-09</v>
+        <v>1.081798794803276E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999989112</v>
+        <v>179.999999998913</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2089,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660254037798927</v>
+        <v>0.8660254037798595</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254037964469</v>
+        <v>0.8660254037964552</v>
       </c>
       <c r="Q6">
-        <v>1.08050728854779E-09</v>
+        <v>1.081803774819917E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999989112</v>
+        <v>179.999999998913</v>
       </c>
     </row>
   </sheetData>
@@ -2220,22 +2220,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9821968591989456</v>
+        <v>0.982196859198913</v>
       </c>
       <c r="O2">
-        <v>0.850004952541402</v>
+        <v>0.8500049525413512</v>
       </c>
       <c r="P2">
-        <v>0.9468598309457219</v>
+        <v>0.9468598309457105</v>
       </c>
       <c r="Q2">
-        <v>25.60992326808851</v>
+        <v>25.60992326808932</v>
       </c>
       <c r="R2">
-        <v>-92.65381631331513</v>
+        <v>-92.65381631331215</v>
       </c>
       <c r="S2">
-        <v>153.3606354236809</v>
+        <v>153.3606354236838</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2279,22 +2279,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.990070340137079</v>
+        <v>0.9900703401370421</v>
       </c>
       <c r="O3">
-        <v>0.3617201835030113</v>
+        <v>0.3617201835029615</v>
       </c>
       <c r="P3">
-        <v>0.7649715466411117</v>
+        <v>0.76497154664112</v>
       </c>
       <c r="Q3">
-        <v>8.150888684274422</v>
+        <v>8.150888684275493</v>
       </c>
       <c r="R3">
-        <v>-129.0915432241893</v>
+        <v>-129.0915432241848</v>
       </c>
       <c r="S3">
-        <v>169.4262793833645</v>
+        <v>169.4262793833671</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2305,55 +2305,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.119085825515528</v>
+        <v>3.119085825515375</v>
       </c>
       <c r="D4">
-        <v>3.119085825515528</v>
+        <v>3.119085825515375</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.01610081973872</v>
+        <v>36.01610081973696</v>
       </c>
       <c r="G4">
-        <v>36.01610081973872</v>
+        <v>36.01610081973696</v>
       </c>
       <c r="H4">
-        <v>7.193732704939285</v>
+        <v>1.779871125943829</v>
       </c>
       <c r="I4">
-        <v>2.361514783877015</v>
+        <v>-777.3239522249595</v>
       </c>
       <c r="J4">
-        <v>1.113751880257014</v>
+        <v>1.113751880282301</v>
       </c>
       <c r="K4">
-        <v>3.006397543787041</v>
+        <v>3.006397543839067</v>
       </c>
       <c r="L4">
-        <v>1.113751880233079</v>
+        <v>1.113751880227458</v>
       </c>
       <c r="M4">
-        <v>3.006397543745587</v>
+        <v>3.006397543754448</v>
       </c>
       <c r="N4">
-        <v>0.8660254037880054</v>
+        <v>0.8660254037879721</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254037883344</v>
+        <v>0.8660254037883427</v>
       </c>
       <c r="Q4">
-        <v>1.722725667631101E-10</v>
+        <v>1.735720191896028E-10</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999998194</v>
+        <v>179.9999999998212</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2397,22 +2397,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660254037798927</v>
+        <v>0.8660254037798595</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.866025403796447</v>
+        <v>0.8660254037964552</v>
       </c>
       <c r="Q5">
-        <v>1.080504688398969E-09</v>
+        <v>1.081798794803276E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999989112</v>
+        <v>179.999999998913</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2456,22 +2456,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660254037798927</v>
+        <v>0.8660254037798595</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254037964469</v>
+        <v>0.8660254037964552</v>
       </c>
       <c r="Q6">
-        <v>1.08050728854779E-09</v>
+        <v>1.081803774819917E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999989112</v>
+        <v>179.999999998913</v>
       </c>
     </row>
   </sheetData>
@@ -2587,22 +2587,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9991077190359253</v>
+        <v>0.9991077190359067</v>
       </c>
       <c r="O2">
-        <v>0.9333641900095898</v>
+        <v>0.9333641900095613</v>
       </c>
       <c r="P2">
-        <v>0.9681777323222119</v>
+        <v>0.9681777323222075</v>
       </c>
       <c r="Q2">
-        <v>27.8246974452445</v>
+        <v>27.82469744524498</v>
       </c>
       <c r="R2">
-        <v>-92.15705182751171</v>
+        <v>-92.15705182750995</v>
       </c>
       <c r="S2">
-        <v>151.2048467246548</v>
+        <v>151.2048467246564</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2646,22 +2646,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.018434506766488</v>
+        <v>1.018434506766468</v>
       </c>
       <c r="O3">
-        <v>0.7086876959566593</v>
+        <v>0.7086876959566289</v>
       </c>
       <c r="P3">
-        <v>0.8449321159941326</v>
+        <v>0.8449321159941334</v>
       </c>
       <c r="Q3">
-        <v>19.61176266474866</v>
+        <v>19.61176266474917</v>
       </c>
       <c r="R3">
-        <v>-105.2709110729077</v>
+        <v>-105.2709110729055</v>
       </c>
       <c r="S3">
-        <v>156.1359474819764</v>
+        <v>156.1359474819781</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2672,55 +2672,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.518298439092604</v>
+        <v>1.518298439092569</v>
       </c>
       <c r="D4">
-        <v>1.518298439092604</v>
+        <v>1.518298439092569</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>17.53180025040608</v>
+        <v>17.53180025040566</v>
       </c>
       <c r="G4">
-        <v>17.53180025040608</v>
+        <v>17.53180025040566</v>
       </c>
       <c r="H4">
-        <v>7.193732704939285</v>
+        <v>1.779871125943829</v>
       </c>
       <c r="I4">
-        <v>2.361514783877015</v>
+        <v>-777.3239522249595</v>
       </c>
       <c r="J4">
-        <v>1.113751880257014</v>
+        <v>1.113751880282301</v>
       </c>
       <c r="K4">
-        <v>3.006397543787041</v>
+        <v>3.006397543839067</v>
       </c>
       <c r="L4">
-        <v>1.113751880233079</v>
+        <v>1.113751880227458</v>
       </c>
       <c r="M4">
-        <v>3.006397543745587</v>
+        <v>3.006397543754448</v>
       </c>
       <c r="N4">
-        <v>0.9573399675119602</v>
+        <v>0.9573399675119402</v>
       </c>
       <c r="O4">
-        <v>0.536799561077546</v>
+        <v>0.5367995610775216</v>
       </c>
       <c r="P4">
-        <v>0.8529812840863316</v>
+        <v>0.852981284086335</v>
       </c>
       <c r="Q4">
-        <v>15.93288697155592</v>
+        <v>15.93288697155649</v>
       </c>
       <c r="R4">
-        <v>-101.7238138495564</v>
+        <v>-101.7238138495534</v>
       </c>
       <c r="S4">
-        <v>162.0554462537874</v>
+        <v>162.0554462537891</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9573399675083641</v>
+        <v>0.9573399675083443</v>
       </c>
       <c r="O5">
-        <v>0.536799561086394</v>
+        <v>0.5367995610863695</v>
       </c>
       <c r="P5">
-        <v>0.8529812840931512</v>
+        <v>0.8529812840931547</v>
       </c>
       <c r="Q5">
-        <v>15.93288697196762</v>
+        <v>15.93288697196819</v>
       </c>
       <c r="R5">
-        <v>-101.7238138481949</v>
+        <v>-101.7238138481919</v>
       </c>
       <c r="S5">
-        <v>162.0554462535384</v>
+        <v>162.0554462535401</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2823,22 +2823,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9573399675083646</v>
+        <v>0.9573399675083443</v>
       </c>
       <c r="O6">
-        <v>0.536799561086394</v>
+        <v>0.5367995610863695</v>
       </c>
       <c r="P6">
-        <v>0.8529812840931513</v>
+        <v>0.8529812840931547</v>
       </c>
       <c r="Q6">
-        <v>15.93288697196762</v>
+        <v>15.93288697196819</v>
       </c>
       <c r="R6">
-        <v>-101.7238138481949</v>
+        <v>-101.7238138481919</v>
       </c>
       <c r="S6">
-        <v>162.0554462535384</v>
+        <v>162.0554462535401</v>
       </c>
     </row>
   </sheetData>
@@ -2954,22 +2954,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9991077190359253</v>
+        <v>0.9991077190359067</v>
       </c>
       <c r="O2">
-        <v>0.9333641900095898</v>
+        <v>0.9333641900095613</v>
       </c>
       <c r="P2">
-        <v>0.9681777323222119</v>
+        <v>0.9681777323222075</v>
       </c>
       <c r="Q2">
-        <v>27.8246974452445</v>
+        <v>27.82469744524498</v>
       </c>
       <c r="R2">
-        <v>-92.15705182751171</v>
+        <v>-92.15705182750995</v>
       </c>
       <c r="S2">
-        <v>151.2048467246548</v>
+        <v>151.2048467246564</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3013,22 +3013,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.018434506766488</v>
+        <v>1.018434506766468</v>
       </c>
       <c r="O3">
-        <v>0.7086876959566593</v>
+        <v>0.7086876959566289</v>
       </c>
       <c r="P3">
-        <v>0.8449321159941326</v>
+        <v>0.8449321159941334</v>
       </c>
       <c r="Q3">
-        <v>19.61176266474866</v>
+        <v>19.61176266474917</v>
       </c>
       <c r="R3">
-        <v>-105.2709110729077</v>
+        <v>-105.2709110729055</v>
       </c>
       <c r="S3">
-        <v>156.1359474819764</v>
+        <v>156.1359474819781</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3039,55 +3039,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.518298439092604</v>
+        <v>1.518298439092569</v>
       </c>
       <c r="D4">
-        <v>1.518298439092604</v>
+        <v>1.518298439092569</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>17.53180025040608</v>
+        <v>17.53180025040566</v>
       </c>
       <c r="G4">
-        <v>17.53180025040608</v>
+        <v>17.53180025040566</v>
       </c>
       <c r="H4">
-        <v>7.193732704939285</v>
+        <v>1.779871125943829</v>
       </c>
       <c r="I4">
-        <v>2.361514783877015</v>
+        <v>-777.3239522249595</v>
       </c>
       <c r="J4">
-        <v>1.113751880257014</v>
+        <v>1.113751880282301</v>
       </c>
       <c r="K4">
-        <v>3.006397543787041</v>
+        <v>3.006397543839067</v>
       </c>
       <c r="L4">
-        <v>1.113751880233079</v>
+        <v>1.113751880227458</v>
       </c>
       <c r="M4">
-        <v>3.006397543745587</v>
+        <v>3.006397543754448</v>
       </c>
       <c r="N4">
-        <v>0.9573399675119602</v>
+        <v>0.9573399675119402</v>
       </c>
       <c r="O4">
-        <v>0.536799561077546</v>
+        <v>0.5367995610775216</v>
       </c>
       <c r="P4">
-        <v>0.8529812840863316</v>
+        <v>0.852981284086335</v>
       </c>
       <c r="Q4">
-        <v>15.93288697155592</v>
+        <v>15.93288697155649</v>
       </c>
       <c r="R4">
-        <v>-101.7238138495564</v>
+        <v>-101.7238138495534</v>
       </c>
       <c r="S4">
-        <v>162.0554462537874</v>
+        <v>162.0554462537891</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3131,22 +3131,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9573399675083641</v>
+        <v>0.9573399675083443</v>
       </c>
       <c r="O5">
-        <v>0.536799561086394</v>
+        <v>0.5367995610863695</v>
       </c>
       <c r="P5">
-        <v>0.8529812840931512</v>
+        <v>0.8529812840931547</v>
       </c>
       <c r="Q5">
-        <v>15.93288697196762</v>
+        <v>15.93288697196819</v>
       </c>
       <c r="R5">
-        <v>-101.7238138481949</v>
+        <v>-101.7238138481919</v>
       </c>
       <c r="S5">
-        <v>162.0554462535384</v>
+        <v>162.0554462535401</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3190,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9573399675083646</v>
+        <v>0.9573399675083443</v>
       </c>
       <c r="O6">
-        <v>0.536799561086394</v>
+        <v>0.5367995610863695</v>
       </c>
       <c r="P6">
-        <v>0.8529812840931513</v>
+        <v>0.8529812840931547</v>
       </c>
       <c r="Q6">
-        <v>15.93288697196762</v>
+        <v>15.93288697196819</v>
       </c>
       <c r="R6">
-        <v>-101.7238138481949</v>
+        <v>-101.7238138481919</v>
       </c>
       <c r="S6">
-        <v>162.0554462535384</v>
+        <v>162.0554462535401</v>
       </c>
     </row>
   </sheetData>
@@ -3324,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.012616669968075</v>
+        <v>1.100880659270565</v>
       </c>
       <c r="O2">
-        <v>1.10000002384848</v>
+        <v>1.100000023841831</v>
       </c>
       <c r="P2">
-        <v>1.05341991782766</v>
+        <v>1.100991740961975</v>
       </c>
       <c r="Q2">
-        <v>30.35167372547109</v>
+        <v>29.96686247808288</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999642</v>
+        <v>-89.99999999999639</v>
       </c>
       <c r="S2">
-        <v>146.0489476179814</v>
+        <v>150.0231131755654</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3386,22 +3386,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.639916685076969</v>
+        <v>1.104799393870896</v>
       </c>
       <c r="O3">
-        <v>1.100000023848401</v>
+        <v>1.100000023841806</v>
       </c>
       <c r="P3">
-        <v>0.9486300585514615</v>
+        <v>1.105080307389554</v>
       </c>
       <c r="Q3">
-        <v>30.73993559768169</v>
+        <v>29.83952984754589</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999653</v>
+        <v>-89.99999999999804</v>
       </c>
       <c r="S3">
-        <v>125.4357547490811</v>
+        <v>150.1350891948539</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3412,7 +3412,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>3.982869958781636</v>
+        <v>0.04938854711809091</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>45.99022085699703</v>
+        <v>0.5702898194702861</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3430,43 +3430,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.76376745482967</v>
+        <v>0.9290034595192737</v>
       </c>
       <c r="I4">
-        <v>2.348036266670468</v>
+        <v>-777.3313339353878</v>
       </c>
       <c r="J4">
-        <v>0.6277319162687917</v>
+        <v>0.6277319161824058</v>
       </c>
       <c r="K4">
-        <v>2.898438697960033</v>
+        <v>2.898438697956979</v>
       </c>
       <c r="L4">
-        <v>0.62773191636404</v>
+        <v>0.6277319163756512</v>
       </c>
       <c r="M4">
-        <v>2.898438697959961</v>
+        <v>2.898438697959477</v>
       </c>
       <c r="N4">
-        <v>0.5306392271699695</v>
+        <v>1.105420584983488</v>
       </c>
       <c r="O4">
-        <v>1.100000023848401</v>
+        <v>1.100000023841806</v>
       </c>
       <c r="P4">
-        <v>0.8447736927298567</v>
+        <v>1.106982178604321</v>
       </c>
       <c r="Q4">
-        <v>41.78823137284845</v>
+        <v>29.74413026112206</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999631</v>
+        <v>-89.99999999999807</v>
       </c>
       <c r="S4">
-        <v>117.9273743248247</v>
+        <v>150.1147243868958</v>
       </c>
       <c r="T4">
-        <v>3.982869958781636</v>
+        <v>0.0493885471180909</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -3510,22 +3510,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5306392271814258</v>
+        <v>1.105420584983331</v>
       </c>
       <c r="O5">
-        <v>1.100000023848401</v>
+        <v>1.100000023841806</v>
       </c>
       <c r="P5">
-        <v>0.8447736927216286</v>
+        <v>1.106982178604257</v>
       </c>
       <c r="Q5">
-        <v>41.7882313734583</v>
+        <v>29.74413026112113</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999631</v>
+        <v>-89.99999999999808</v>
       </c>
       <c r="S5">
-        <v>117.9273743254873</v>
+        <v>150.1147243868883</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5306392271814258</v>
+        <v>1.10542058498333</v>
       </c>
       <c r="O6">
-        <v>1.100000023848401</v>
+        <v>1.100000023841806</v>
       </c>
       <c r="P6">
-        <v>0.8447736927216286</v>
+        <v>1.106982178604257</v>
       </c>
       <c r="Q6">
-        <v>41.78823137345828</v>
+        <v>29.74413026112113</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999631</v>
+        <v>-89.99999999999808</v>
       </c>
       <c r="S6">
-        <v>117.9273743254873</v>
+        <v>150.1147243868883</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.012616669968075</v>
+        <v>1.100880659270565</v>
       </c>
       <c r="O2">
-        <v>1.10000002384848</v>
+        <v>1.100000023841831</v>
       </c>
       <c r="P2">
-        <v>1.05341991782766</v>
+        <v>1.100991740961975</v>
       </c>
       <c r="Q2">
-        <v>30.35167372547109</v>
+        <v>29.96686247808288</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999642</v>
+        <v>-89.99999999999639</v>
       </c>
       <c r="S2">
-        <v>146.0489476179814</v>
+        <v>150.0231131755654</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3771,22 +3771,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.639916685076969</v>
+        <v>1.104799393870896</v>
       </c>
       <c r="O3">
-        <v>1.100000023848401</v>
+        <v>1.100000023841806</v>
       </c>
       <c r="P3">
-        <v>0.9486300585514615</v>
+        <v>1.105080307389554</v>
       </c>
       <c r="Q3">
-        <v>30.73993559768169</v>
+        <v>29.83952984754589</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999653</v>
+        <v>-89.99999999999804</v>
       </c>
       <c r="S3">
-        <v>125.4357547490811</v>
+        <v>150.1350891948539</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>3.982869958781636</v>
+        <v>0.04938854711809091</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>45.99022085699703</v>
+        <v>0.5702898194702861</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3815,43 +3815,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.76376745482967</v>
+        <v>0.9290034595192737</v>
       </c>
       <c r="I4">
-        <v>2.348036266670468</v>
+        <v>-777.3313339353878</v>
       </c>
       <c r="J4">
-        <v>0.6277319162687917</v>
+        <v>0.6277319161824058</v>
       </c>
       <c r="K4">
-        <v>2.898438697960033</v>
+        <v>2.898438697956979</v>
       </c>
       <c r="L4">
-        <v>0.62773191636404</v>
+        <v>0.6277319163756512</v>
       </c>
       <c r="M4">
-        <v>2.898438697959961</v>
+        <v>2.898438697959477</v>
       </c>
       <c r="N4">
-        <v>0.5306392271699695</v>
+        <v>1.105420584983488</v>
       </c>
       <c r="O4">
-        <v>1.100000023848401</v>
+        <v>1.100000023841806</v>
       </c>
       <c r="P4">
-        <v>0.8447736927298567</v>
+        <v>1.106982178604321</v>
       </c>
       <c r="Q4">
-        <v>41.78823137284845</v>
+        <v>29.74413026112206</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999631</v>
+        <v>-89.99999999999807</v>
       </c>
       <c r="S4">
-        <v>117.9273743248247</v>
+        <v>150.1147243868958</v>
       </c>
       <c r="T4">
-        <v>3.982869958781636</v>
+        <v>0.0493885471180909</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -3895,22 +3895,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5306392271814258</v>
+        <v>1.105420584983331</v>
       </c>
       <c r="O5">
-        <v>1.100000023848401</v>
+        <v>1.100000023841806</v>
       </c>
       <c r="P5">
-        <v>0.8447736927216286</v>
+        <v>1.106982178604257</v>
       </c>
       <c r="Q5">
-        <v>41.7882313734583</v>
+        <v>29.74413026112113</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999631</v>
+        <v>-89.99999999999808</v>
       </c>
       <c r="S5">
-        <v>117.9273743254873</v>
+        <v>150.1147243868883</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5306392271814258</v>
+        <v>1.10542058498333</v>
       </c>
       <c r="O6">
-        <v>1.100000023848401</v>
+        <v>1.100000023841806</v>
       </c>
       <c r="P6">
-        <v>0.8447736927216286</v>
+        <v>1.106982178604257</v>
       </c>
       <c r="Q6">
-        <v>41.78823137345828</v>
+        <v>29.74413026112113</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999631</v>
+        <v>-89.99999999999808</v>
       </c>
       <c r="S6">
-        <v>117.9273743254873</v>
+        <v>150.1147243868883</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4094,22 +4094,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.072718903965324</v>
+        <v>1.100884824552085</v>
       </c>
       <c r="O2">
-        <v>1.100000023843908</v>
+        <v>1.100000023841831</v>
       </c>
       <c r="P2">
-        <v>1.088770445944782</v>
+        <v>1.101019942606764</v>
       </c>
       <c r="Q2">
-        <v>29.86871977942218</v>
+        <v>29.96529212704861</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999639</v>
       </c>
       <c r="S2">
-        <v>148.6917765059287</v>
+        <v>150.0225143531701</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4156,22 +4156,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9578052858591873</v>
+        <v>1.104829998331321</v>
       </c>
       <c r="O3">
-        <v>1.100000023844319</v>
+        <v>1.100000023841811</v>
       </c>
       <c r="P3">
-        <v>1.055025903858972</v>
+        <v>1.105231320538592</v>
       </c>
       <c r="Q3">
-        <v>28.77436284525917</v>
+        <v>29.83138675463995</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999645</v>
+        <v>-89.99999999999807</v>
       </c>
       <c r="S3">
-        <v>142.7262143642853</v>
+        <v>150.1323522001771</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.245201051167219</v>
+        <v>0.05035499934831615</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.37834324173198</v>
+        <v>0.5814494485758752</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -4200,43 +4200,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.76376745482967</v>
+        <v>0.9290034595192737</v>
       </c>
       <c r="I4">
-        <v>2.348036266670468</v>
+        <v>-777.3313339353878</v>
       </c>
       <c r="J4">
-        <v>0.6277319162687917</v>
+        <v>0.6277319161824058</v>
       </c>
       <c r="K4">
-        <v>2.898438697960033</v>
+        <v>2.898438697956979</v>
       </c>
       <c r="L4">
-        <v>0.62773191636404</v>
+        <v>0.6277319163756512</v>
       </c>
       <c r="M4">
-        <v>2.898438697959961</v>
+        <v>2.898438697959477</v>
       </c>
       <c r="N4">
-        <v>0.9154220783956216</v>
+        <v>1.105426236861051</v>
       </c>
       <c r="O4">
-        <v>1.100000023844319</v>
+        <v>1.10000002384181</v>
       </c>
       <c r="P4">
-        <v>1.016210418329701</v>
+        <v>1.107162087770632</v>
       </c>
       <c r="Q4">
-        <v>30.27467713881871</v>
+        <v>29.73349351239508</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999811</v>
       </c>
       <c r="S4">
-        <v>141.074562026826</v>
+        <v>150.109606471823</v>
       </c>
       <c r="T4">
-        <v>1.245201051167219</v>
+        <v>0.05035499934831615</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -4280,22 +4280,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9154220783983463</v>
+        <v>1.10542623686089</v>
       </c>
       <c r="O5">
-        <v>1.100000023844319</v>
+        <v>1.100000023841811</v>
       </c>
       <c r="P5">
-        <v>1.016210418327939</v>
+        <v>1.107162087770563</v>
       </c>
       <c r="Q5">
-        <v>30.27467713900143</v>
+        <v>29.7334935123943</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999811</v>
       </c>
       <c r="S5">
-        <v>141.0745620270281</v>
+        <v>150.1096064718154</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9154220783983464</v>
+        <v>1.10542623686089</v>
       </c>
       <c r="O6">
-        <v>1.100000023844319</v>
+        <v>1.100000023841811</v>
       </c>
       <c r="P6">
-        <v>1.016210418327939</v>
+        <v>1.107162087770563</v>
       </c>
       <c r="Q6">
-        <v>30.27467713900142</v>
+        <v>29.7334935123943</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999811</v>
       </c>
       <c r="S6">
-        <v>141.0745620270281</v>
+        <v>150.1096064718154</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4630,22 +4630,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.072718903965324</v>
+        <v>1.100884824552085</v>
       </c>
       <c r="O2">
-        <v>1.100000023843908</v>
+        <v>1.100000023841831</v>
       </c>
       <c r="P2">
-        <v>1.088770445944782</v>
+        <v>1.101019942606764</v>
       </c>
       <c r="Q2">
-        <v>29.86871977942218</v>
+        <v>29.96529212704861</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999639</v>
       </c>
       <c r="S2">
-        <v>148.6917765059287</v>
+        <v>150.0225143531701</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4692,22 +4692,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9578052858591873</v>
+        <v>1.104829998331321</v>
       </c>
       <c r="O3">
-        <v>1.100000023844319</v>
+        <v>1.100000023841811</v>
       </c>
       <c r="P3">
-        <v>1.055025903858972</v>
+        <v>1.105231320538592</v>
       </c>
       <c r="Q3">
-        <v>28.77436284525917</v>
+        <v>29.83138675463995</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999645</v>
+        <v>-89.99999999999807</v>
       </c>
       <c r="S3">
-        <v>142.7262143642853</v>
+        <v>150.1323522001771</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.245201051167219</v>
+        <v>0.05035499934831615</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4727,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.37834324173198</v>
+        <v>0.5814494485758752</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -4736,43 +4736,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.76376745482967</v>
+        <v>0.9290034595192737</v>
       </c>
       <c r="I4">
-        <v>2.348036266670468</v>
+        <v>-777.3313339353878</v>
       </c>
       <c r="J4">
-        <v>0.6277319162687917</v>
+        <v>0.6277319161824058</v>
       </c>
       <c r="K4">
-        <v>2.898438697960033</v>
+        <v>2.898438697956979</v>
       </c>
       <c r="L4">
-        <v>0.62773191636404</v>
+        <v>0.6277319163756512</v>
       </c>
       <c r="M4">
-        <v>2.898438697959961</v>
+        <v>2.898438697959477</v>
       </c>
       <c r="N4">
-        <v>0.9154220783956216</v>
+        <v>1.105426236861051</v>
       </c>
       <c r="O4">
-        <v>1.100000023844319</v>
+        <v>1.10000002384181</v>
       </c>
       <c r="P4">
-        <v>1.016210418329701</v>
+        <v>1.107162087770632</v>
       </c>
       <c r="Q4">
-        <v>30.27467713881871</v>
+        <v>29.73349351239508</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999811</v>
       </c>
       <c r="S4">
-        <v>141.074562026826</v>
+        <v>150.109606471823</v>
       </c>
       <c r="T4">
-        <v>1.245201051167219</v>
+        <v>0.05035499934831615</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -4816,22 +4816,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9154220783983463</v>
+        <v>1.10542623686089</v>
       </c>
       <c r="O5">
-        <v>1.100000023844319</v>
+        <v>1.100000023841811</v>
       </c>
       <c r="P5">
-        <v>1.016210418327939</v>
+        <v>1.107162087770563</v>
       </c>
       <c r="Q5">
-        <v>30.27467713900143</v>
+        <v>29.7334935123943</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999811</v>
       </c>
       <c r="S5">
-        <v>141.0745620270281</v>
+        <v>150.1096064718154</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9154220783983464</v>
+        <v>1.10542623686089</v>
       </c>
       <c r="O6">
-        <v>1.100000023844319</v>
+        <v>1.100000023841811</v>
       </c>
       <c r="P6">
-        <v>1.016210418327939</v>
+        <v>1.107162087770563</v>
       </c>
       <c r="Q6">
-        <v>30.27467713900142</v>
+        <v>29.7334935123943</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999811</v>
       </c>
       <c r="S6">
-        <v>141.0745620270281</v>
+        <v>150.1096064718154</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9330864935089985</v>
+        <v>1.000908471450536</v>
       </c>
       <c r="O2">
-        <v>0.9999999999962171</v>
+        <v>0.999999999999998</v>
       </c>
       <c r="P2">
-        <v>0.9817119338666817</v>
+        <v>1.001025881717299</v>
       </c>
       <c r="Q2">
-        <v>29.0756220662803</v>
+        <v>29.96221421741412</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>146.1696597043798</v>
+        <v>150.0261303310837</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5077,22 +5077,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6857621828909086</v>
+        <v>1.00455872900145</v>
       </c>
       <c r="O3">
-        <v>1.000000000000872</v>
+        <v>0.9999999999999489</v>
       </c>
       <c r="P3">
-        <v>0.9723902596824592</v>
+        <v>1.004844602726202</v>
       </c>
       <c r="Q3">
-        <v>22.49399991896299</v>
+        <v>29.83111032489595</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999662</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S3">
-        <v>130.6607616801075</v>
+        <v>150.1404756784484</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5103,7 +5103,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>2.748172768727545</v>
+        <v>0.04491125053426347</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5112,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>31.73316575608895</v>
+        <v>0.5185904517119948</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5121,43 +5121,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.19373270493935</v>
+        <v>1.779871125944458</v>
       </c>
       <c r="I4">
-        <v>2.361514783876815</v>
+        <v>-777.323952224962</v>
       </c>
       <c r="J4">
-        <v>1.113751880253133</v>
+        <v>1.113751880194702</v>
       </c>
       <c r="K4">
-        <v>3.006397543745562</v>
+        <v>3.006397543741585</v>
       </c>
       <c r="L4">
-        <v>1.113751880233363</v>
+        <v>1.113751880244063</v>
       </c>
       <c r="M4">
-        <v>3.006397543745532</v>
+        <v>3.006397543746115</v>
       </c>
       <c r="N4">
-        <v>0.5599195007887735</v>
+        <v>1.004582647290282</v>
       </c>
       <c r="O4">
-        <v>1.000000000000872</v>
+        <v>0.9999999999999493</v>
       </c>
       <c r="P4">
-        <v>0.8530446727841299</v>
+        <v>1.007103955129571</v>
       </c>
       <c r="Q4">
-        <v>31.54263638696133</v>
+        <v>29.6825870546174</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999625</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S4">
-        <v>124.0142189298934</v>
+        <v>150.0667173209075</v>
       </c>
       <c r="T4">
-        <v>2.748172768727545</v>
+        <v>0.04491125053426346</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -5201,22 +5201,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5599195008012833</v>
+        <v>1.004582647290066</v>
       </c>
       <c r="O5">
-        <v>1.000000000000872</v>
+        <v>0.9999999999999495</v>
       </c>
       <c r="P5">
-        <v>0.85304467277828</v>
+        <v>1.007103955129394</v>
       </c>
       <c r="Q5">
-        <v>31.54263638761576</v>
+        <v>29.68258705462184</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999625</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S5">
-        <v>124.0142189307514</v>
+        <v>150.0667173208992</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5599195008012834</v>
+        <v>1.004582647290066</v>
       </c>
       <c r="O6">
-        <v>1.000000000000872</v>
+        <v>0.9999999999999493</v>
       </c>
       <c r="P6">
-        <v>0.85304467277828</v>
+        <v>1.007103955129394</v>
       </c>
       <c r="Q6">
-        <v>31.54263638761574</v>
+        <v>29.68258705462183</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999625</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S6">
-        <v>124.0142189307514</v>
+        <v>150.0667173208992</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5400,22 +5400,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9330864935089985</v>
+        <v>1.000908471450536</v>
       </c>
       <c r="O2">
-        <v>0.9999999999962171</v>
+        <v>0.999999999999998</v>
       </c>
       <c r="P2">
-        <v>0.9817119338666817</v>
+        <v>1.001025881717299</v>
       </c>
       <c r="Q2">
-        <v>29.0756220662803</v>
+        <v>29.96221421741412</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>146.1696597043798</v>
+        <v>150.0261303310837</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5462,22 +5462,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6857621828909086</v>
+        <v>1.00455872900145</v>
       </c>
       <c r="O3">
-        <v>1.000000000000872</v>
+        <v>0.9999999999999489</v>
       </c>
       <c r="P3">
-        <v>0.9723902596824592</v>
+        <v>1.004844602726202</v>
       </c>
       <c r="Q3">
-        <v>22.49399991896299</v>
+        <v>29.83111032489595</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999662</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S3">
-        <v>130.6607616801075</v>
+        <v>150.1404756784484</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5488,7 +5488,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>2.748172768727545</v>
+        <v>0.04491125053426347</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>31.73316575608895</v>
+        <v>0.5185904517119948</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5506,43 +5506,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.19373270493935</v>
+        <v>1.779871125944458</v>
       </c>
       <c r="I4">
-        <v>2.361514783876815</v>
+        <v>-777.323952224962</v>
       </c>
       <c r="J4">
-        <v>1.113751880253133</v>
+        <v>1.113751880194702</v>
       </c>
       <c r="K4">
-        <v>3.006397543745562</v>
+        <v>3.006397543741585</v>
       </c>
       <c r="L4">
-        <v>1.113751880233363</v>
+        <v>1.113751880244063</v>
       </c>
       <c r="M4">
-        <v>3.006397543745532</v>
+        <v>3.006397543746115</v>
       </c>
       <c r="N4">
-        <v>0.5599195007887735</v>
+        <v>1.004582647290282</v>
       </c>
       <c r="O4">
-        <v>1.000000000000872</v>
+        <v>0.9999999999999493</v>
       </c>
       <c r="P4">
-        <v>0.8530446727841299</v>
+        <v>1.007103955129571</v>
       </c>
       <c r="Q4">
-        <v>31.54263638696133</v>
+        <v>29.6825870546174</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999625</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S4">
-        <v>124.0142189298934</v>
+        <v>150.0667173209075</v>
       </c>
       <c r="T4">
-        <v>2.748172768727545</v>
+        <v>0.04491125053426346</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -5586,22 +5586,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5599195008012833</v>
+        <v>1.004582647290066</v>
       </c>
       <c r="O5">
-        <v>1.000000000000872</v>
+        <v>0.9999999999999495</v>
       </c>
       <c r="P5">
-        <v>0.85304467277828</v>
+        <v>1.007103955129394</v>
       </c>
       <c r="Q5">
-        <v>31.54263638761576</v>
+        <v>29.68258705462184</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999625</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S5">
-        <v>124.0142189307514</v>
+        <v>150.0667173208992</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5599195008012834</v>
+        <v>1.004582647290066</v>
       </c>
       <c r="O6">
-        <v>1.000000000000872</v>
+        <v>0.9999999999999493</v>
       </c>
       <c r="P6">
-        <v>0.85304467277828</v>
+        <v>1.007103955129394</v>
       </c>
       <c r="Q6">
-        <v>31.54263638761574</v>
+        <v>29.68258705462183</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999625</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S6">
-        <v>124.0142189307514</v>
+        <v>150.0667173208992</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5785,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9748253494000435</v>
+        <v>1.000912630132996</v>
       </c>
       <c r="O2">
-        <v>0.9999999999986379</v>
+        <v>0.9999999999999961</v>
       </c>
       <c r="P2">
-        <v>0.9917612220733836</v>
+        <v>1.001054972919207</v>
       </c>
       <c r="Q2">
-        <v>29.72445692906767</v>
+        <v>29.96042785907825</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999639</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>148.6043465196032</v>
+        <v>150.0254415316421</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5847,22 +5847,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8799630761768336</v>
+        <v>1.004587016974436</v>
       </c>
       <c r="O3">
-        <v>1.000000000000371</v>
+        <v>0.9999999999999493</v>
       </c>
       <c r="P3">
-        <v>0.9721350027305764</v>
+        <v>1.004988088380985</v>
       </c>
       <c r="Q3">
-        <v>28.11263825190496</v>
+        <v>29.82257389894649</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999645</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S3">
-        <v>142.9770987353856</v>
+        <v>150.1375610785103</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5873,7 +5873,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.024740802367924</v>
+        <v>0.04578814069080148</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5882,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.83268756193428</v>
+        <v>0.5287159070705338</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5891,43 +5891,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.19373270493935</v>
+        <v>1.779871125944458</v>
       </c>
       <c r="I4">
-        <v>2.361514783876815</v>
+        <v>-777.323952224962</v>
       </c>
       <c r="J4">
-        <v>1.113751880253133</v>
+        <v>1.113751880194702</v>
       </c>
       <c r="K4">
-        <v>3.006397543745562</v>
+        <v>3.006397543741585</v>
       </c>
       <c r="L4">
-        <v>1.113751880233363</v>
+        <v>1.113751880244063</v>
       </c>
       <c r="M4">
-        <v>3.006397543745532</v>
+        <v>3.006397543746115</v>
       </c>
       <c r="N4">
-        <v>0.836226838389417</v>
+        <v>1.00455894875248</v>
       </c>
       <c r="O4">
-        <v>1.000000000000371</v>
+        <v>0.9999999999999495</v>
       </c>
       <c r="P4">
-        <v>0.9181076400541681</v>
+        <v>1.007264901367089</v>
       </c>
       <c r="Q4">
-        <v>30.79943024266927</v>
+        <v>29.67115313774778</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999631</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S4">
-        <v>141.4770536805405</v>
+        <v>150.0597857737322</v>
       </c>
       <c r="T4">
-        <v>1.024740802367924</v>
+        <v>0.04578814069080148</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -5971,22 +5971,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8362268383941371</v>
+        <v>1.004558948752261</v>
       </c>
       <c r="O5">
-        <v>1.000000000000371</v>
+        <v>0.9999999999999497</v>
       </c>
       <c r="P5">
-        <v>0.9181076400537088</v>
+        <v>1.007264901366907</v>
       </c>
       <c r="Q5">
-        <v>30.79943024282499</v>
+        <v>29.67115313775255</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999631</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S5">
-        <v>141.4770536808661</v>
+        <v>150.0597857737239</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8362268383941373</v>
+        <v>1.004558948752261</v>
       </c>
       <c r="O6">
-        <v>1.000000000000371</v>
+        <v>0.9999999999999496</v>
       </c>
       <c r="P6">
-        <v>0.9181076400537088</v>
+        <v>1.007264901366907</v>
       </c>
       <c r="Q6">
-        <v>30.79943024282499</v>
+        <v>29.67115313775255</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999631</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S6">
-        <v>141.4770536808662</v>
+        <v>150.0597857737239</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6170,22 +6170,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9748253494000435</v>
+        <v>1.000912630132996</v>
       </c>
       <c r="O2">
-        <v>0.9999999999986379</v>
+        <v>0.9999999999999961</v>
       </c>
       <c r="P2">
-        <v>0.9917612220733836</v>
+        <v>1.001054972919207</v>
       </c>
       <c r="Q2">
-        <v>29.72445692906767</v>
+        <v>29.96042785907825</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999639</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>148.6043465196032</v>
+        <v>150.0254415316421</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6232,22 +6232,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8799630761768336</v>
+        <v>1.004587016974436</v>
       </c>
       <c r="O3">
-        <v>1.000000000000371</v>
+        <v>0.9999999999999493</v>
       </c>
       <c r="P3">
-        <v>0.9721350027305764</v>
+        <v>1.004988088380985</v>
       </c>
       <c r="Q3">
-        <v>28.11263825190496</v>
+        <v>29.82257389894649</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999645</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S3">
-        <v>142.9770987353856</v>
+        <v>150.1375610785103</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6258,7 +6258,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.024740802367924</v>
+        <v>0.04578814069080148</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6267,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.83268756193428</v>
+        <v>0.5287159070705338</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -6276,43 +6276,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.19373270493935</v>
+        <v>1.779871125944458</v>
       </c>
       <c r="I4">
-        <v>2.361514783876815</v>
+        <v>-777.323952224962</v>
       </c>
       <c r="J4">
-        <v>1.113751880253133</v>
+        <v>1.113751880194702</v>
       </c>
       <c r="K4">
-        <v>3.006397543745562</v>
+        <v>3.006397543741585</v>
       </c>
       <c r="L4">
-        <v>1.113751880233363</v>
+        <v>1.113751880244063</v>
       </c>
       <c r="M4">
-        <v>3.006397543745532</v>
+        <v>3.006397543746115</v>
       </c>
       <c r="N4">
-        <v>0.836226838389417</v>
+        <v>1.00455894875248</v>
       </c>
       <c r="O4">
-        <v>1.000000000000371</v>
+        <v>0.9999999999999495</v>
       </c>
       <c r="P4">
-        <v>0.9181076400541681</v>
+        <v>1.007264901367089</v>
       </c>
       <c r="Q4">
-        <v>30.79943024266927</v>
+        <v>29.67115313774778</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999631</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S4">
-        <v>141.4770536805405</v>
+        <v>150.0597857737322</v>
       </c>
       <c r="T4">
-        <v>1.024740802367924</v>
+        <v>0.04578814069080148</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -6356,22 +6356,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8362268383941371</v>
+        <v>1.004558948752261</v>
       </c>
       <c r="O5">
-        <v>1.000000000000371</v>
+        <v>0.9999999999999497</v>
       </c>
       <c r="P5">
-        <v>0.9181076400537088</v>
+        <v>1.007264901366907</v>
       </c>
       <c r="Q5">
-        <v>30.79943024282499</v>
+        <v>29.67115313775255</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999631</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S5">
-        <v>141.4770536808661</v>
+        <v>150.0597857737239</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8362268383941373</v>
+        <v>1.004558948752261</v>
       </c>
       <c r="O6">
-        <v>1.000000000000371</v>
+        <v>0.9999999999999496</v>
       </c>
       <c r="P6">
-        <v>0.9181076400537088</v>
+        <v>1.007264901366907</v>
       </c>
       <c r="Q6">
-        <v>30.79943024282499</v>
+        <v>29.67115313775255</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999631</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S6">
-        <v>141.4770536808662</v>
+        <v>150.0597857737239</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6555,22 +6555,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.03386865578551</v>
+        <v>1.070323826091093</v>
       </c>
       <c r="O2">
-        <v>0.9380319009574143</v>
+        <v>0.9380319009573833</v>
       </c>
       <c r="P2">
-        <v>1.039840646946629</v>
+        <v>1.053747152198864</v>
       </c>
       <c r="Q2">
-        <v>25.43823995006959</v>
+        <v>25.98203329291439</v>
       </c>
       <c r="R2">
-        <v>-91.13019952199043</v>
+        <v>-91.13019952201596</v>
       </c>
       <c r="S2">
-        <v>151.6507120279211</v>
+        <v>153.5745646248148</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6617,22 +6617,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8825617415041292</v>
+        <v>1.0330089996791</v>
       </c>
       <c r="O3">
-        <v>0.2917056037528093</v>
+        <v>0.2917056037512378</v>
       </c>
       <c r="P3">
-        <v>0.7864778067437821</v>
+        <v>0.8920999052696006</v>
       </c>
       <c r="Q3">
-        <v>-0.7001526360921166</v>
+        <v>7.077856465783946</v>
       </c>
       <c r="R3">
-        <v>-119.1713773544552</v>
+        <v>-119.1713773550724</v>
       </c>
       <c r="S3">
-        <v>160.2710578498356</v>
+        <v>171.7881374566865</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6646,58 +6646,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.891085508535289</v>
+        <v>3.711791889695518</v>
       </c>
       <c r="D4">
-        <v>3.072304282888314</v>
+        <v>3.706555752520915</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.47739069964654</v>
+        <v>42.86008093383154</v>
       </c>
       <c r="G4">
-        <v>35.47591409516017</v>
+        <v>42.79961922968613</v>
       </c>
       <c r="H4">
-        <v>3.763767454829635</v>
+        <v>0.9290034595184007</v>
       </c>
       <c r="I4">
-        <v>2.348036266670648</v>
+        <v>-777.3313339353872</v>
       </c>
       <c r="J4">
-        <v>0.6277319163570094</v>
+        <v>0.6277319163975308</v>
       </c>
       <c r="K4">
-        <v>2.89843869794818</v>
+        <v>2.898438698024544</v>
       </c>
       <c r="L4">
-        <v>0.6277319163638694</v>
+        <v>0.6277319163582739</v>
       </c>
       <c r="M4">
-        <v>2.898438697960014</v>
+        <v>2.898438697970032</v>
       </c>
       <c r="N4">
-        <v>0.7584426162678327</v>
+        <v>0.9544067732245956</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7584426162729182</v>
+        <v>0.9544067732262106</v>
       </c>
       <c r="Q4">
-        <v>-11.00281462486175</v>
+        <v>-0.02330559564024756</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>168.9971853750447</v>
+        <v>179.9766944043772</v>
       </c>
       <c r="T4">
-        <v>3.419391167170275</v>
+        <v>0.02455596603318062</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -6741,22 +6741,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7584426162571485</v>
+        <v>0.9544067732156369</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7584426162827554</v>
+        <v>0.9544067732351059</v>
       </c>
       <c r="Q5">
-        <v>-11.00281462399423</v>
+        <v>-0.02330559516972183</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>168.9971853750031</v>
+        <v>179.9766944039038</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7584426162571484</v>
+        <v>0.9544067732156369</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7584426162827556</v>
+        <v>0.9544067732351059</v>
       </c>
       <c r="Q6">
-        <v>-11.00281462399422</v>
+        <v>-0.02330559516971457</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>168.9971853750031</v>
+        <v>179.9766944039038</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6940,22 +6940,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.03386865578551</v>
+        <v>1.070323826091093</v>
       </c>
       <c r="O2">
-        <v>0.9380319009574143</v>
+        <v>0.9380319009573833</v>
       </c>
       <c r="P2">
-        <v>1.039840646946629</v>
+        <v>1.053747152198864</v>
       </c>
       <c r="Q2">
-        <v>25.43823995006959</v>
+        <v>25.98203329291439</v>
       </c>
       <c r="R2">
-        <v>-91.13019952199043</v>
+        <v>-91.13019952201596</v>
       </c>
       <c r="S2">
-        <v>151.6507120279211</v>
+        <v>153.5745646248148</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7002,22 +7002,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8825617415041292</v>
+        <v>1.0330089996791</v>
       </c>
       <c r="O3">
-        <v>0.2917056037528093</v>
+        <v>0.2917056037512378</v>
       </c>
       <c r="P3">
-        <v>0.7864778067437821</v>
+        <v>0.8920999052696006</v>
       </c>
       <c r="Q3">
-        <v>-0.7001526360921166</v>
+        <v>7.077856465783946</v>
       </c>
       <c r="R3">
-        <v>-119.1713773544552</v>
+        <v>-119.1713773550724</v>
       </c>
       <c r="S3">
-        <v>160.2710578498356</v>
+        <v>171.7881374566865</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7031,58 +7031,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.891085508535289</v>
+        <v>3.711791889695518</v>
       </c>
       <c r="D4">
-        <v>3.072304282888314</v>
+        <v>3.706555752520915</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.47739069964654</v>
+        <v>42.86008093383154</v>
       </c>
       <c r="G4">
-        <v>35.47591409516017</v>
+        <v>42.79961922968613</v>
       </c>
       <c r="H4">
-        <v>3.763767454829635</v>
+        <v>0.9290034595184007</v>
       </c>
       <c r="I4">
-        <v>2.348036266670648</v>
+        <v>-777.3313339353872</v>
       </c>
       <c r="J4">
-        <v>0.6277319163570094</v>
+        <v>0.6277319163975308</v>
       </c>
       <c r="K4">
-        <v>2.89843869794818</v>
+        <v>2.898438698024544</v>
       </c>
       <c r="L4">
-        <v>0.6277319163638694</v>
+        <v>0.6277319163582739</v>
       </c>
       <c r="M4">
-        <v>2.898438697960014</v>
+        <v>2.898438697970032</v>
       </c>
       <c r="N4">
-        <v>0.7584426162678327</v>
+        <v>0.9544067732245956</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7584426162729182</v>
+        <v>0.9544067732262106</v>
       </c>
       <c r="Q4">
-        <v>-11.00281462486175</v>
+        <v>-0.02330559564024756</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>168.9971853750447</v>
+        <v>179.9766944043772</v>
       </c>
       <c r="T4">
-        <v>3.419391167170275</v>
+        <v>0.02455596603318062</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -7126,22 +7126,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7584426162571485</v>
+        <v>0.9544067732156369</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7584426162827554</v>
+        <v>0.9544067732351059</v>
       </c>
       <c r="Q5">
-        <v>-11.00281462399423</v>
+        <v>-0.02330559516972183</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>168.9971853750031</v>
+        <v>179.9766944039038</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7584426162571484</v>
+        <v>0.9544067732156369</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7584426162827556</v>
+        <v>0.9544067732351059</v>
       </c>
       <c r="Q6">
-        <v>-11.00281462399422</v>
+        <v>-0.02330559516971457</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>168.9971853750031</v>
+        <v>179.9766944039038</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7325,22 +7325,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.087476165554554</v>
+        <v>1.100401642411016</v>
       </c>
       <c r="O2">
-        <v>1.056966443489799</v>
+        <v>1.056966443489663</v>
       </c>
       <c r="P2">
-        <v>1.074009814349409</v>
+        <v>1.078767047323735</v>
       </c>
       <c r="Q2">
-        <v>28.56673616770051</v>
+        <v>28.69223084078804</v>
       </c>
       <c r="R2">
-        <v>-91.34292556127281</v>
+        <v>-91.34292556127379</v>
       </c>
       <c r="S2">
-        <v>150.0209643493071</v>
+        <v>150.6732825608797</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7387,22 +7387,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.05033447926662</v>
+        <v>1.115396222311081</v>
       </c>
       <c r="O3">
-        <v>0.8910570420404547</v>
+        <v>0.8910570420387912</v>
       </c>
       <c r="P3">
-        <v>0.9635912640344279</v>
+        <v>0.9865778996003601</v>
       </c>
       <c r="Q3">
-        <v>21.99646737556343</v>
+        <v>23.21966610641681</v>
       </c>
       <c r="R3">
-        <v>-99.16867920486987</v>
+        <v>-99.16867920489041</v>
       </c>
       <c r="S3">
-        <v>149.6922947510738</v>
+        <v>153.5187925058017</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7416,58 +7416,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.367687710936925</v>
+        <v>1.141573465037626</v>
       </c>
       <c r="D4">
-        <v>1.181511502797518</v>
+        <v>1.126957684203503</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>15.79269736153553</v>
+        <v>13.18175494678415</v>
       </c>
       <c r="G4">
-        <v>13.64291968381573</v>
+        <v>13.01298644680419</v>
       </c>
       <c r="H4">
-        <v>3.763767454829635</v>
+        <v>0.9290034595184007</v>
       </c>
       <c r="I4">
-        <v>2.348036266670648</v>
+        <v>-777.3313339353872</v>
       </c>
       <c r="J4">
-        <v>0.6277319163570094</v>
+        <v>0.6277319163975308</v>
       </c>
       <c r="K4">
-        <v>2.89843869794818</v>
+        <v>2.898438698024544</v>
       </c>
       <c r="L4">
-        <v>0.6277319163638694</v>
+        <v>0.6277319163582739</v>
       </c>
       <c r="M4">
-        <v>2.898438697960014</v>
+        <v>2.898438697970032</v>
       </c>
       <c r="N4">
-        <v>1.007909850061568</v>
+        <v>1.094590971068482</v>
       </c>
       <c r="O4">
-        <v>0.8020156209384901</v>
+        <v>0.8020156209369286</v>
       </c>
       <c r="P4">
-        <v>0.9265260979739401</v>
+        <v>0.9722760078706706</v>
       </c>
       <c r="Q4">
-        <v>20.15577503365077</v>
+        <v>21.15696580049379</v>
       </c>
       <c r="R4">
-        <v>-99.52967390013436</v>
+        <v>-99.52967390016364</v>
       </c>
       <c r="S4">
-        <v>151.3909791108389</v>
+        <v>155.9727021398423</v>
       </c>
       <c r="T4">
-        <v>1.177813975952218</v>
+        <v>0.02479407801314843</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -7511,22 +7511,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.007909850059602</v>
+        <v>1.094590971065629</v>
       </c>
       <c r="O5">
-        <v>0.8020156209395792</v>
+        <v>0.8020156209380176</v>
       </c>
       <c r="P5">
-        <v>0.9265260979768496</v>
+        <v>0.9722760078742689</v>
       </c>
       <c r="Q5">
-        <v>20.15577503387364</v>
+        <v>21.15696580061385</v>
       </c>
       <c r="R5">
-        <v>-99.52967389962052</v>
+        <v>-99.52967389964979</v>
       </c>
       <c r="S5">
-        <v>151.390979110989</v>
+        <v>155.9727021398622</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.007909850059602</v>
+        <v>1.094590971065629</v>
       </c>
       <c r="O6">
-        <v>0.8020156209395792</v>
+        <v>0.8020156209380176</v>
       </c>
       <c r="P6">
-        <v>0.9265260979768494</v>
+        <v>0.9722760078742686</v>
       </c>
       <c r="Q6">
-        <v>20.15577503387365</v>
+        <v>21.15696580061385</v>
       </c>
       <c r="R6">
-        <v>-99.52967389962052</v>
+        <v>-99.52967389964979</v>
       </c>
       <c r="S6">
-        <v>151.390979110989</v>
+        <v>155.9727021398622</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7710,22 +7710,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.087476165554554</v>
+        <v>1.100401642411016</v>
       </c>
       <c r="O2">
-        <v>1.056966443489799</v>
+        <v>1.056966443489663</v>
       </c>
       <c r="P2">
-        <v>1.074009814349409</v>
+        <v>1.078767047323735</v>
       </c>
       <c r="Q2">
-        <v>28.56673616770051</v>
+        <v>28.69223084078804</v>
       </c>
       <c r="R2">
-        <v>-91.34292556127281</v>
+        <v>-91.34292556127379</v>
       </c>
       <c r="S2">
-        <v>150.0209643493071</v>
+        <v>150.6732825608797</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7772,22 +7772,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.05033447926662</v>
+        <v>1.115396222311081</v>
       </c>
       <c r="O3">
-        <v>0.8910570420404547</v>
+        <v>0.8910570420387912</v>
       </c>
       <c r="P3">
-        <v>0.9635912640344279</v>
+        <v>0.9865778996003601</v>
       </c>
       <c r="Q3">
-        <v>21.99646737556343</v>
+        <v>23.21966610641681</v>
       </c>
       <c r="R3">
-        <v>-99.16867920486987</v>
+        <v>-99.16867920489041</v>
       </c>
       <c r="S3">
-        <v>149.6922947510738</v>
+        <v>153.5187925058017</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7801,58 +7801,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.367687710936925</v>
+        <v>1.141573465037626</v>
       </c>
       <c r="D4">
-        <v>1.181511502797518</v>
+        <v>1.126957684203503</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>15.79269736153553</v>
+        <v>13.18175494678415</v>
       </c>
       <c r="G4">
-        <v>13.64291968381573</v>
+        <v>13.01298644680419</v>
       </c>
       <c r="H4">
-        <v>3.763767454829635</v>
+        <v>0.9290034595184007</v>
       </c>
       <c r="I4">
-        <v>2.348036266670648</v>
+        <v>-777.3313339353872</v>
       </c>
       <c r="J4">
-        <v>0.6277319163570094</v>
+        <v>0.6277319163975308</v>
       </c>
       <c r="K4">
-        <v>2.89843869794818</v>
+        <v>2.898438698024544</v>
       </c>
       <c r="L4">
-        <v>0.6277319163638694</v>
+        <v>0.6277319163582739</v>
       </c>
       <c r="M4">
-        <v>2.898438697960014</v>
+        <v>2.898438697970032</v>
       </c>
       <c r="N4">
-        <v>1.007909850061568</v>
+        <v>1.094590971068482</v>
       </c>
       <c r="O4">
-        <v>0.8020156209384901</v>
+        <v>0.8020156209369286</v>
       </c>
       <c r="P4">
-        <v>0.9265260979739401</v>
+        <v>0.9722760078706706</v>
       </c>
       <c r="Q4">
-        <v>20.15577503365077</v>
+        <v>21.15696580049379</v>
       </c>
       <c r="R4">
-        <v>-99.52967390013436</v>
+        <v>-99.52967390016364</v>
       </c>
       <c r="S4">
-        <v>151.3909791108389</v>
+        <v>155.9727021398423</v>
       </c>
       <c r="T4">
-        <v>1.177813975952218</v>
+        <v>0.02479407801314843</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -7896,22 +7896,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.007909850059602</v>
+        <v>1.094590971065629</v>
       </c>
       <c r="O5">
-        <v>0.8020156209395792</v>
+        <v>0.8020156209380176</v>
       </c>
       <c r="P5">
-        <v>0.9265260979768496</v>
+        <v>0.9722760078742689</v>
       </c>
       <c r="Q5">
-        <v>20.15577503387364</v>
+        <v>21.15696580061385</v>
       </c>
       <c r="R5">
-        <v>-99.52967389962052</v>
+        <v>-99.52967389964979</v>
       </c>
       <c r="S5">
-        <v>151.390979110989</v>
+        <v>155.9727021398622</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.007909850059602</v>
+        <v>1.094590971065629</v>
       </c>
       <c r="O6">
-        <v>0.8020156209395792</v>
+        <v>0.8020156209380176</v>
       </c>
       <c r="P6">
-        <v>0.9265260979768494</v>
+        <v>0.9722760078742686</v>
       </c>
       <c r="Q6">
-        <v>20.15577503387365</v>
+        <v>21.15696580061385</v>
       </c>
       <c r="R6">
-        <v>-99.52967389962052</v>
+        <v>-99.52967389964979</v>
       </c>
       <c r="S6">
-        <v>151.390979110989</v>
+        <v>155.9727021398622</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8095,22 +8095,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9611300313844641</v>
+        <v>0.9824348306647347</v>
       </c>
       <c r="O2">
-        <v>0.8500049525401294</v>
+        <v>0.850004952541347</v>
       </c>
       <c r="P2">
-        <v>0.9447595200464214</v>
+        <v>0.9471207900545247</v>
       </c>
       <c r="Q2">
-        <v>24.81628612593133</v>
+        <v>25.601421177035</v>
       </c>
       <c r="R2">
-        <v>-92.65381631332433</v>
+        <v>-92.65381631331145</v>
       </c>
       <c r="S2">
-        <v>151.8515617284767</v>
+        <v>153.3666182816142</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8157,22 +8157,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9216546236744049</v>
+        <v>0.9913955177754886</v>
       </c>
       <c r="O3">
-        <v>0.3617201835032986</v>
+        <v>0.3617201835028968</v>
       </c>
       <c r="P3">
-        <v>0.7352542862350432</v>
+        <v>0.7663096995408919</v>
       </c>
       <c r="Q3">
-        <v>2.16566137019394</v>
+        <v>8.135923820832694</v>
       </c>
       <c r="R3">
-        <v>-129.0915432242097</v>
+        <v>-129.0915432241799</v>
       </c>
       <c r="S3">
-        <v>160.4599787945618</v>
+        <v>169.4397499365088</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8186,58 +8186,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.872505622973568</v>
+        <v>3.123012617051463</v>
       </c>
       <c r="D4">
-        <v>2.541826336173468</v>
+        <v>3.115194083370187</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>44.71584327724258</v>
+        <v>36.06144350274521</v>
       </c>
       <c r="G4">
-        <v>29.35048238846064</v>
+        <v>35.97116285223414</v>
       </c>
       <c r="H4">
-        <v>7.193732704939285</v>
+        <v>1.779871125943829</v>
       </c>
       <c r="I4">
-        <v>2.361514783877015</v>
+        <v>-777.3239522249595</v>
       </c>
       <c r="J4">
-        <v>1.113751880257014</v>
+        <v>1.113751880282301</v>
       </c>
       <c r="K4">
-        <v>3.006397543787041</v>
+        <v>3.006397543839067</v>
       </c>
       <c r="L4">
-        <v>1.113751880233079</v>
+        <v>1.113751880227458</v>
       </c>
       <c r="M4">
-        <v>3.006397543745587</v>
+        <v>3.006397543754448</v>
       </c>
       <c r="N4">
-        <v>0.7571028330123778</v>
+        <v>0.8677017182068494</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7571028330124511</v>
+        <v>0.8677017182073089</v>
       </c>
       <c r="Q4">
-        <v>-8.328724856354393</v>
+        <v>-0.04138020577683804</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>171.6712751432005</v>
+        <v>179.9586197938725</v>
       </c>
       <c r="T4">
-        <v>1.999894071919209</v>
+        <v>0.02232529799406408</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -8281,22 +8281,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7571028330030667</v>
+        <v>0.8677017181986707</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7571028330231709</v>
+        <v>0.867701718215375</v>
       </c>
       <c r="Q5">
-        <v>-8.328724855032215</v>
+        <v>-0.04138020487142481</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>171.6712751426446</v>
+        <v>179.9586197929658</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7571028330030666</v>
+        <v>0.8677017181986707</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7571028330231707</v>
+        <v>0.8677017182153752</v>
       </c>
       <c r="Q6">
-        <v>-8.328724855032204</v>
+        <v>-0.04138020487141923</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>171.6712751426446</v>
+        <v>179.9586197929658</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8631,22 +8631,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9611300313844641</v>
+        <v>0.9824348306647347</v>
       </c>
       <c r="O2">
-        <v>0.8500049525401294</v>
+        <v>0.850004952541347</v>
       </c>
       <c r="P2">
-        <v>0.9447595200464214</v>
+        <v>0.9471207900545247</v>
       </c>
       <c r="Q2">
-        <v>24.81628612593133</v>
+        <v>25.601421177035</v>
       </c>
       <c r="R2">
-        <v>-92.65381631332433</v>
+        <v>-92.65381631331145</v>
       </c>
       <c r="S2">
-        <v>151.8515617284767</v>
+        <v>153.3666182816142</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8693,22 +8693,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9216546236744049</v>
+        <v>0.9913955177754886</v>
       </c>
       <c r="O3">
-        <v>0.3617201835032986</v>
+        <v>0.3617201835028968</v>
       </c>
       <c r="P3">
-        <v>0.7352542862350432</v>
+        <v>0.7663096995408919</v>
       </c>
       <c r="Q3">
-        <v>2.16566137019394</v>
+        <v>8.135923820832694</v>
       </c>
       <c r="R3">
-        <v>-129.0915432242097</v>
+        <v>-129.0915432241799</v>
       </c>
       <c r="S3">
-        <v>160.4599787945618</v>
+        <v>169.4397499365088</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8722,58 +8722,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.872505622973568</v>
+        <v>3.123012617051463</v>
       </c>
       <c r="D4">
-        <v>2.541826336173468</v>
+        <v>3.115194083370187</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>44.71584327724258</v>
+        <v>36.06144350274521</v>
       </c>
       <c r="G4">
-        <v>29.35048238846064</v>
+        <v>35.97116285223414</v>
       </c>
       <c r="H4">
-        <v>7.193732704939285</v>
+        <v>1.779871125943829</v>
       </c>
       <c r="I4">
-        <v>2.361514783877015</v>
+        <v>-777.3239522249595</v>
       </c>
       <c r="J4">
-        <v>1.113751880257014</v>
+        <v>1.113751880282301</v>
       </c>
       <c r="K4">
-        <v>3.006397543787041</v>
+        <v>3.006397543839067</v>
       </c>
       <c r="L4">
-        <v>1.113751880233079</v>
+        <v>1.113751880227458</v>
       </c>
       <c r="M4">
-        <v>3.006397543745587</v>
+        <v>3.006397543754448</v>
       </c>
       <c r="N4">
-        <v>0.7571028330123778</v>
+        <v>0.8677017182068494</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7571028330124511</v>
+        <v>0.8677017182073089</v>
       </c>
       <c r="Q4">
-        <v>-8.328724856354393</v>
+        <v>-0.04138020577683804</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>171.6712751432005</v>
+        <v>179.9586197938725</v>
       </c>
       <c r="T4">
-        <v>1.999894071919209</v>
+        <v>0.02232529799406408</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -8817,22 +8817,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7571028330030667</v>
+        <v>0.8677017181986707</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7571028330231709</v>
+        <v>0.867701718215375</v>
       </c>
       <c r="Q5">
-        <v>-8.328724855032215</v>
+        <v>-0.04138020487142481</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>171.6712751426446</v>
+        <v>179.9586197929658</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7571028330030666</v>
+        <v>0.8677017181986707</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7571028330231707</v>
+        <v>0.8677017182153752</v>
       </c>
       <c r="Q6">
-        <v>-8.328724855032204</v>
+        <v>-0.04138020487141923</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>171.6712751426446</v>
+        <v>179.9586197929658</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9016,22 +9016,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9902689128808461</v>
+        <v>1.001254943695311</v>
       </c>
       <c r="O2">
-        <v>0.9581045791304975</v>
+        <v>0.9581045791310923</v>
       </c>
       <c r="P2">
-        <v>0.9757134703510496</v>
+        <v>0.9784890375248645</v>
       </c>
       <c r="Q2">
-        <v>28.36538912503429</v>
+        <v>28.5707397832133</v>
       </c>
       <c r="R2">
-        <v>-91.55789971897998</v>
+        <v>-91.55789971897734</v>
       </c>
       <c r="S2">
-        <v>150.0390411947835</v>
+        <v>150.6965437526789</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9078,22 +9078,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9681689233910991</v>
+        <v>1.017983848301289</v>
       </c>
       <c r="O3">
-        <v>0.8139299031199678</v>
+        <v>0.8139299031202323</v>
       </c>
       <c r="P3">
-        <v>0.8824897012910062</v>
+        <v>0.8942412680652541</v>
       </c>
       <c r="Q3">
-        <v>21.74348024958358</v>
+        <v>23.20577208534117</v>
       </c>
       <c r="R3">
-        <v>-99.65273561737125</v>
+        <v>-99.65273561736385</v>
       </c>
       <c r="S3">
-        <v>149.8122743830594</v>
+        <v>153.3368553470636</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9107,58 +9107,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.200428213411252</v>
+        <v>0.9996730311069495</v>
       </c>
       <c r="D4">
-        <v>0.9718342163060487</v>
+        <v>0.9857649405766836</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>13.86135104311616</v>
+        <v>11.54322987222413</v>
       </c>
       <c r="G4">
-        <v>11.22177492783972</v>
+        <v>11.38263307599287</v>
       </c>
       <c r="H4">
-        <v>7.193732704939285</v>
+        <v>1.779871125943829</v>
       </c>
       <c r="I4">
-        <v>2.361514783877015</v>
+        <v>-777.3239522249595</v>
       </c>
       <c r="J4">
-        <v>1.113751880257014</v>
+        <v>1.113751880282301</v>
       </c>
       <c r="K4">
-        <v>3.006397543787041</v>
+        <v>3.006397543839067</v>
       </c>
       <c r="L4">
-        <v>1.113751880233079</v>
+        <v>1.113751880227458</v>
       </c>
       <c r="M4">
-        <v>3.006397543745587</v>
+        <v>3.006397543754448</v>
       </c>
       <c r="N4">
-        <v>0.9054589484767291</v>
+        <v>0.978040937726028</v>
       </c>
       <c r="O4">
-        <v>0.7019303077931047</v>
+        <v>0.7019303077932948</v>
       </c>
       <c r="P4">
-        <v>0.8514942418922242</v>
+        <v>0.8919843912401161</v>
       </c>
       <c r="Q4">
-        <v>19.89479362818982</v>
+        <v>20.79347050455035</v>
       </c>
       <c r="R4">
-        <v>-97.63434507043139</v>
+        <v>-97.63434507041455</v>
       </c>
       <c r="S4">
-        <v>152.9232597311817</v>
+        <v>157.0015743748758</v>
       </c>
       <c r="T4">
-        <v>0.9106755861019807</v>
+        <v>0.02254148235547235</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -9202,22 +9202,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9054589484760522</v>
+        <v>0.9780409377236815</v>
       </c>
       <c r="O5">
-        <v>0.7019303077988895</v>
+        <v>0.7019303077990796</v>
       </c>
       <c r="P5">
-        <v>0.8514942418970932</v>
+        <v>0.8919843912448548</v>
       </c>
       <c r="Q5">
-        <v>19.89479362857578</v>
+        <v>20.79347050481629</v>
       </c>
       <c r="R5">
-        <v>-97.63434506975064</v>
+        <v>-97.63434506973381</v>
       </c>
       <c r="S5">
-        <v>152.9232597312482</v>
+        <v>157.0015743747656</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9054589484760522</v>
+        <v>0.9780409377236815</v>
       </c>
       <c r="O6">
-        <v>0.7019303077988897</v>
+        <v>0.7019303077990796</v>
       </c>
       <c r="P6">
-        <v>0.8514942418970934</v>
+        <v>0.8919843912448548</v>
       </c>
       <c r="Q6">
-        <v>19.89479362857579</v>
+        <v>20.7934705048163</v>
       </c>
       <c r="R6">
-        <v>-97.63434506975064</v>
+        <v>-97.63434506973381</v>
       </c>
       <c r="S6">
-        <v>152.9232597312482</v>
+        <v>157.0015743747656</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9902689128808461</v>
+        <v>1.001254943695311</v>
       </c>
       <c r="O2">
-        <v>0.9581045791304975</v>
+        <v>0.9581045791310923</v>
       </c>
       <c r="P2">
-        <v>0.9757134703510496</v>
+        <v>0.9784890375248645</v>
       </c>
       <c r="Q2">
-        <v>28.36538912503429</v>
+        <v>28.5707397832133</v>
       </c>
       <c r="R2">
-        <v>-91.55789971897998</v>
+        <v>-91.55789971897734</v>
       </c>
       <c r="S2">
-        <v>150.0390411947835</v>
+        <v>150.6965437526789</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9463,22 +9463,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9681689233910991</v>
+        <v>1.017983848301289</v>
       </c>
       <c r="O3">
-        <v>0.8139299031199678</v>
+        <v>0.8139299031202323</v>
       </c>
       <c r="P3">
-        <v>0.8824897012910062</v>
+        <v>0.8942412680652541</v>
       </c>
       <c r="Q3">
-        <v>21.74348024958358</v>
+        <v>23.20577208534117</v>
       </c>
       <c r="R3">
-        <v>-99.65273561737125</v>
+        <v>-99.65273561736385</v>
       </c>
       <c r="S3">
-        <v>149.8122743830594</v>
+        <v>153.3368553470636</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9492,58 +9492,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.200428213411252</v>
+        <v>0.9996730311069495</v>
       </c>
       <c r="D4">
-        <v>0.9718342163060487</v>
+        <v>0.9857649405766836</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>13.86135104311616</v>
+        <v>11.54322987222413</v>
       </c>
       <c r="G4">
-        <v>11.22177492783972</v>
+        <v>11.38263307599287</v>
       </c>
       <c r="H4">
-        <v>7.193732704939285</v>
+        <v>1.779871125943829</v>
       </c>
       <c r="I4">
-        <v>2.361514783877015</v>
+        <v>-777.3239522249595</v>
       </c>
       <c r="J4">
-        <v>1.113751880257014</v>
+        <v>1.113751880282301</v>
       </c>
       <c r="K4">
-        <v>3.006397543787041</v>
+        <v>3.006397543839067</v>
       </c>
       <c r="L4">
-        <v>1.113751880233079</v>
+        <v>1.113751880227458</v>
       </c>
       <c r="M4">
-        <v>3.006397543745587</v>
+        <v>3.006397543754448</v>
       </c>
       <c r="N4">
-        <v>0.9054589484767291</v>
+        <v>0.978040937726028</v>
       </c>
       <c r="O4">
-        <v>0.7019303077931047</v>
+        <v>0.7019303077932948</v>
       </c>
       <c r="P4">
-        <v>0.8514942418922242</v>
+        <v>0.8919843912401161</v>
       </c>
       <c r="Q4">
-        <v>19.89479362818982</v>
+        <v>20.79347050455035</v>
       </c>
       <c r="R4">
-        <v>-97.63434507043139</v>
+        <v>-97.63434507041455</v>
       </c>
       <c r="S4">
-        <v>152.9232597311817</v>
+        <v>157.0015743748758</v>
       </c>
       <c r="T4">
-        <v>0.9106755861019807</v>
+        <v>0.02254148235547235</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -9587,22 +9587,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9054589484760522</v>
+        <v>0.9780409377236815</v>
       </c>
       <c r="O5">
-        <v>0.7019303077988895</v>
+        <v>0.7019303077990796</v>
       </c>
       <c r="P5">
-        <v>0.8514942418970932</v>
+        <v>0.8919843912448548</v>
       </c>
       <c r="Q5">
-        <v>19.89479362857578</v>
+        <v>20.79347050481629</v>
       </c>
       <c r="R5">
-        <v>-97.63434506975064</v>
+        <v>-97.63434506973381</v>
       </c>
       <c r="S5">
-        <v>152.9232597312482</v>
+        <v>157.0015743747656</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9054589484760522</v>
+        <v>0.9780409377236815</v>
       </c>
       <c r="O6">
-        <v>0.7019303077988897</v>
+        <v>0.7019303077990796</v>
       </c>
       <c r="P6">
-        <v>0.8514942418970934</v>
+        <v>0.8919843912448548</v>
       </c>
       <c r="Q6">
-        <v>19.89479362857579</v>
+        <v>20.7934705048163</v>
       </c>
       <c r="R6">
-        <v>-97.63434506975064</v>
+        <v>-97.63434506973381</v>
       </c>
       <c r="S6">
-        <v>152.9232597312482</v>
+        <v>157.0015743747656</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -10538,22 +10538,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.070094227532346</v>
+        <v>1.070094227532368</v>
       </c>
       <c r="O2">
-        <v>0.9380319009574459</v>
+        <v>0.9380319009573985</v>
       </c>
       <c r="P2">
-        <v>1.053494350468705</v>
+        <v>1.053494350468727</v>
       </c>
       <c r="Q2">
-        <v>25.98965116739708</v>
+        <v>25.98965116739489</v>
       </c>
       <c r="R2">
-        <v>-91.13019952201601</v>
+        <v>-91.13019952201626</v>
       </c>
       <c r="S2">
-        <v>153.5693903185486</v>
+        <v>153.5693903185504</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -10597,22 +10597,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.031611214669993</v>
+        <v>1.031611214670019</v>
       </c>
       <c r="O3">
-        <v>0.2917056037512944</v>
+        <v>0.2917056037512681</v>
       </c>
       <c r="P3">
-        <v>0.8906876332644381</v>
+        <v>0.8906876332644816</v>
       </c>
       <c r="Q3">
-        <v>7.091324389062615</v>
+        <v>7.091324389061656</v>
       </c>
       <c r="R3">
-        <v>-119.1713773550799</v>
+        <v>-119.1713773550788</v>
       </c>
       <c r="S3">
-        <v>171.7794727726616</v>
+        <v>171.7794727726624</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10623,55 +10623,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.709154423937069</v>
+        <v>3.709154423936902</v>
       </c>
       <c r="D4">
-        <v>3.709154423937069</v>
+        <v>3.709154423936902</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>42.82962610251916</v>
+        <v>42.82962610251724</v>
       </c>
       <c r="G4">
-        <v>42.82962610251916</v>
+        <v>42.82962610251724</v>
       </c>
       <c r="H4">
-        <v>3.763767454829635</v>
+        <v>0.9290034595184007</v>
       </c>
       <c r="I4">
-        <v>2.348036266670648</v>
+        <v>-777.3313339353872</v>
       </c>
       <c r="J4">
-        <v>0.6277319163570094</v>
+        <v>0.6277319163975308</v>
       </c>
       <c r="K4">
-        <v>2.89843869794818</v>
+        <v>2.898438698024544</v>
       </c>
       <c r="L4">
-        <v>0.6277319163638694</v>
+        <v>0.6277319163582739</v>
       </c>
       <c r="M4">
-        <v>2.898438697960014</v>
+        <v>2.898438697970032</v>
       </c>
       <c r="N4">
-        <v>0.9526279648032093</v>
+        <v>0.9526279648032371</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279648047558</v>
+        <v>0.9526279648048005</v>
       </c>
       <c r="Q4">
-        <v>-1.243022260446055E-11</v>
+        <v>-1.283916965476978E-11</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999999999811</v>
+        <v>-179.9999999999812</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10715,22 +10715,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279647942856</v>
+        <v>0.9526279647943134</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648136797</v>
+        <v>0.9526279648137245</v>
       </c>
       <c r="Q5">
-        <v>4.606094720667687E-10</v>
+        <v>4.601927041678301E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999995313</v>
+        <v>179.9999999995312</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10774,22 +10774,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279647942856</v>
+        <v>0.9526279647943133</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279648136797</v>
+        <v>0.9526279648137245</v>
       </c>
       <c r="Q6">
-        <v>4.606112949988609E-10</v>
+        <v>4.601987537818814E-10</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999995313</v>
+        <v>179.9999999995312</v>
       </c>
     </row>
   </sheetData>
